--- a/ConversionAndRetrieval/quiz_data.xlsx
+++ b/ConversionAndRetrieval/quiz_data.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals Quiz</t>
+          <t>Introduction to JavaScript Quiz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Key western partner dog attack.</t>
+          <t>Focus bank young role international.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -494,19 +494,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>questions5.csv</t>
+          <t>questions4.csv</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Machine Learning Basics Quiz</t>
+          <t>Introduction to JavaScript Quiz</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Son bit man process point.</t>
+          <t>Source between back miss whatever.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -527,7 +527,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -539,7 +539,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Machine Learning Basics Quiz</t>
+          <t>Backend Development with Node.js Quiz</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Draw little almost respond.</t>
+          <t>Play avoid treat weight.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -560,19 +560,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>questions3.csv</t>
+          <t>questions5.csv</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript Quiz</t>
+          <t>Web Development Fundamentals Quiz</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>I study kid within exist threat marriage.</t>
+          <t>Same item second how probably sort.</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -605,7 +605,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js Quiz</t>
+          <t>Cloud Computing Fundamentals Quiz</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sing family accept personal opportunity.</t>
+          <t>Everything important send eight vote bit human street.</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -626,19 +626,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>questions4.csv</t>
+          <t>questions3.csv</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js Quiz</t>
+          <t>Cloud Computing Fundamentals Quiz</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Order letter they its American.</t>
+          <t>Newspaper government watch five.</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -664,14 +664,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>questions4.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Machine Learning Basics Quiz</t>
+          <t>Cloud Computing Fundamentals Quiz</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>One me generation drop laugh.</t>
+          <t>Floor continue cut until bit good probably.</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -692,19 +692,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>questions5.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals Quiz</t>
+          <t>Introduction to Python Quiz</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Federal their and imagine foot when.</t>
+          <t>Around fly else special care why.</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -730,14 +730,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>questions5.csv</t>
+          <t>questions2.csv</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript Quiz</t>
+          <t>Introduction to Python Quiz</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Model follow tree short successful billion similar dinner.</t>
+          <t>Music brother again book.</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -763,14 +763,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>questions5.csv</t>
+          <t>questions4.csv</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB Quiz</t>
+          <t>Data Science Essentials Quiz</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ball human hit know.</t>
+          <t>My value might total he turn fire shake.</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -803,7 +803,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js Quiz</t>
+          <t>Frontend Development with React Quiz</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sister weight put nice.</t>
+          <t>Question here doctor.</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -824,7 +824,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -836,7 +836,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals Quiz</t>
+          <t>Cybersecurity Essentials Quiz</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tend outside either although executive.</t>
+          <t>A financial him hear.</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -869,7 +869,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials Quiz</t>
+          <t>Frontend Development with React Quiz</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Western carry culture.</t>
+          <t>Main leave action practice contain see.</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -890,19 +890,19 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>questions2.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Frontend Development with React Quiz</t>
+          <t>Introduction to Python Quiz</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>World fish tonight account meet.</t>
+          <t>Southern will pressure begin.</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -923,7 +923,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -935,7 +935,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials Quiz</t>
+          <t>Introduction to JavaScript Quiz</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Right number number discover professional.</t>
+          <t>Ok whole question stand cell lead town.</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -956,12 +956,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>questions4.csv</t>
+          <t>questions3.csv</t>
         </is>
       </c>
     </row>
@@ -978,7 +978,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Music candidate red who loss short fill.</t>
+          <t>Become suffer difference artist back east space lawyer.</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -989,19 +989,19 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>questions1.csv</t>
+          <t>questions4.csv</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals Quiz</t>
+          <t>Introduction to Python Quiz</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Spend fight attention administration national throughout respond.</t>
+          <t>Congress family owner company concern south turn.</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1034,7 +1034,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB Quiz</t>
+          <t>Machine Learning Basics Quiz</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Idea article agree program information.</t>
+          <t>Surface action evening within letter.</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1055,19 +1055,19 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>questions2.csv</t>
+          <t>questions3.csv</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals Quiz</t>
+          <t>Introduction to Python Quiz</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Former whether people act degree ever.</t>
+          <t>Mrs describe care easy start notice economic wife.</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1088,19 +1088,19 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>questions5.csv</t>
+          <t>questions2.csv</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB Quiz</t>
+          <t>Web Development Fundamentals Quiz</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Deal city student successful money.</t>
+          <t>Show hand mother.</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>questions1.csv</t>
+          <t>questions5.csv</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Alone book film wife do.</t>
+          <t>Partner know project exactly guy spring.</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1154,19 +1154,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>questions2.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB Quiz</t>
+          <t>Introduction to Python Quiz</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Natural property science within.</t>
+          <t>Finish indicate bar size box that.</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1187,19 +1187,19 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>questions5.csv</t>
+          <t>questions3.csv</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB Quiz</t>
+          <t>Introduction to JavaScript Quiz</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Red artist by book.</t>
+          <t>Time rock visit fund.</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Story hard establish yourself small foreign term.</t>
+          <t>Top call model rich evidence yourself writer.</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1253,19 +1253,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>questions5.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Frontend Development with React Quiz</t>
+          <t>Machine Learning Basics Quiz</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Possible cost visit per town full.</t>
+          <t>Movement mission natural agent.</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1286,19 +1286,19 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>questions3.csv</t>
+          <t>questions2.csv</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals Quiz</t>
+          <t>Frontend Development with React Quiz</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Great along option arrive wear child safe develop.</t>
+          <t>Drive fine truth follow early attorney.</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1319,19 +1319,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>questions1.csv</t>
+          <t>questions5.csv</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals Quiz</t>
+          <t>Machine Learning Basics Quiz</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Herself pass training key poor money.</t>
+          <t>Fight read soon gun every position item.</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1352,19 +1352,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>questions1.csv</t>
+          <t>questions5.csv</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js Quiz</t>
+          <t>Introduction to JavaScript Quiz</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Market public society trip.</t>
+          <t>Production third relate grow role senior occur.</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1385,19 +1385,19 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>questions5.csv</t>
+          <t>questions2.csv</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Data Science Essentials Quiz</t>
+          <t>Cybersecurity Essentials Quiz</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Figure this particular wall yet million within.</t>
+          <t>Watch skin idea serve.</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1418,19 +1418,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>questions4.csv</t>
+          <t>questions3.csv</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Frontend Development with React Quiz</t>
+          <t>Introduction to Python Quiz</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Security music call majority attorney role receive.</t>
+          <t>Room TV detail occur.</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>questions3.csv</t>
+          <t>questions5.csv</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Writer bag capital art huge.</t>
+          <t>Financial phone character.</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1489,14 +1489,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>questions5.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB Quiz</t>
+          <t>Backend Development with Node.js Quiz</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Identify mother garden know.</t>
+          <t>Enjoy brother author vote doctor their.</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1522,14 +1522,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>questions2.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB Quiz</t>
+          <t>Introduction to Python Quiz</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Account woman edge dark save professor citizen.</t>
+          <t>Hand important choice eat.</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1550,19 +1550,19 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>questions3.csv</t>
+          <t>questions2.csv</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Introduction to Python Quiz</t>
+          <t>Frontend Development with React Quiz</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Hand table recently face likely.</t>
+          <t>He land enjoy away.</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1588,14 +1588,14 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>questions4.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Introduction to Python Quiz</t>
+          <t>Database Management with MongoDB Quiz</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Allow under use.</t>
+          <t>Safe case add why.</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1616,19 +1616,19 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>questions5.csv</t>
+          <t>questions3.csv</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript Quiz</t>
+          <t>Web Development Fundamentals Quiz</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Pattern woman rest create turn.</t>
+          <t>Concern teacher race alone economic guess.</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1649,19 +1649,19 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>questions2.csv</t>
+          <t>questions3.csv</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials Quiz</t>
+          <t>Web Development Fundamentals Quiz</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Rather card no though provide turn hand by.</t>
+          <t>Role establish require mention kid add effect.</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>questions5.csv</t>
+          <t>questions2.csv</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Frontend Development with React Quiz</t>
+          <t>Data Science Essentials Quiz</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Since perhaps step.</t>
+          <t>Shake public card great medical space yes trip.</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1715,19 +1715,19 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>questions2.csv</t>
+          <t>questions3.csv</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Machine Learning Basics Quiz</t>
+          <t>Data Science Essentials Quiz</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Per nation show week.</t>
+          <t>Seat catch how official.</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1748,19 +1748,19 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>questions3.csv</t>
+          <t>questions5.csv</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials Quiz</t>
+          <t>Introduction to JavaScript Quiz</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>How happen generation study data according.</t>
+          <t>Together we herself.</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1781,19 +1781,19 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>questions4.csv</t>
+          <t>questions5.csv</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals Quiz</t>
+          <t>Frontend Development with React Quiz</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Walk and thousand more choice democratic.</t>
+          <t>Particular once soldier.</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1814,19 +1814,19 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>questions2.csv</t>
+          <t>questions5.csv</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials Quiz</t>
+          <t>Introduction to Python Quiz</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Them perhaps military step boy down player.</t>
+          <t>National above fast fast.</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1852,14 +1852,14 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>questions2.csv</t>
+          <t>questions3.csv</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials Quiz</t>
+          <t>Frontend Development with React Quiz</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Decide task system hard.</t>
+          <t>Age hope according seat.</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1880,19 +1880,19 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>questions1.csv</t>
+          <t>questions2.csv</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals Quiz</t>
+          <t>Data Science Essentials Quiz</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Book serious serious popular play provide wrong soldier.</t>
+          <t>Reflect institution country talk boy.</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1913,19 +1913,19 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>questions4.csv</t>
+          <t>questions2.csv</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Frontend Development with React Quiz</t>
+          <t>Introduction to JavaScript Quiz</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Star cold management hundred offer.</t>
+          <t>Dinner rest management short.</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1951,14 +1951,14 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>questions5.csv</t>
+          <t>questions2.csv</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB Quiz</t>
+          <t>Introduction to Python Quiz</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Whatever policy large if culture degree.</t>
+          <t>A bill focus common thing.</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1979,19 +1979,19 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>questions1.csv</t>
+          <t>questions2.csv</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Machine Learning Basics Quiz</t>
+          <t>Frontend Development with React Quiz</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Event thought woman else beautiful.</t>
+          <t>Say last want one property.</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2012,19 +2012,19 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>questions3.csv</t>
+          <t>questions4.csv</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Introduction to Python Quiz</t>
+          <t>Web Development Fundamentals Quiz</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Foot kitchen majority watch already.</t>
+          <t>Scene which job effect left mind action wish.</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>questions2.csv</t>
+          <t>questions4.csv</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js Quiz</t>
+          <t>Database Management with MongoDB Quiz</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Foreign join throw way year morning peace.</t>
+          <t>Let live personal woman.</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -2078,19 +2078,19 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>questions2.csv</t>
+          <t>questions3.csv</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript Quiz</t>
+          <t>Web Development Fundamentals Quiz</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>National watch low down exist.</t>
+          <t>Somebody ability wall civil miss street there.</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -2111,19 +2111,19 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>questions1.csv</t>
+          <t>questions5.csv</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals Quiz</t>
+          <t>Cloud Computing Fundamentals Quiz</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Open fund south eight.</t>
+          <t>Better expect hard one above stop listen.</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -2144,19 +2144,19 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>questions1.csv</t>
+          <t>questions4.csv</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Data Science Essentials Quiz</t>
+          <t>Introduction to JavaScript Quiz</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ok anyone other where get.</t>
+          <t>Pay lot skill edge training career summer.</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2177,12 +2177,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>questions2.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Example war less middle only myself box.</t>
+          <t>Former vote daughter under on key.</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2210,19 +2210,19 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>questions2.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Frontend Development with React Quiz</t>
+          <t>Machine Learning Basics Quiz</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Reality order control water relate cover.</t>
+          <t>Wall theory food art arm good grow record.</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2243,19 +2243,19 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>questions4.csv</t>
+          <t>questions5.csv</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Introduction to Python Quiz</t>
+          <t>Frontend Development with React Quiz</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Collection for suffer nor tough practice present.</t>
+          <t>When represent you weight despite others.</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2276,19 +2276,19 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>questions4.csv</t>
+          <t>questions3.csv</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB Quiz</t>
+          <t>Introduction to JavaScript Quiz</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Behind else card interview race style three.</t>
+          <t>Doctor heavy role nature house.</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2321,7 +2321,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Data Science Essentials Quiz</t>
+          <t>Introduction to Python Quiz</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Choose determine mission low official ground.</t>
+          <t>Audience discover own prepare.</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2342,19 +2342,19 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>questions2.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals Quiz</t>
+          <t>Backend Development with Node.js Quiz</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Stuff blue program apply.</t>
+          <t>Which growth investment girl effort never.</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -2375,19 +2375,19 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>questions5.csv</t>
+          <t>questions3.csv</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals Quiz</t>
+          <t>Introduction to Python Quiz</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bed realize large treatment strong million picture.</t>
+          <t>Newspaper politics say new recent rate trouble.</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2413,14 +2413,14 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>questions1.csv</t>
+          <t>questions2.csv</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Data Science Essentials Quiz</t>
+          <t>Database Management with MongoDB Quiz</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Player pattern personal yet.</t>
+          <t>Color strategy age movement data.</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2441,19 +2441,19 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>questions4.csv</t>
+          <t>questions3.csv</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals Quiz</t>
+          <t>Introduction to JavaScript Quiz</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Pull need eat old.</t>
+          <t>Describe strong shake area share seven action try.</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2474,19 +2474,19 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>questions3.csv</t>
+          <t>questions2.csv</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Frontend Development with React Quiz</t>
+          <t>Data Science Essentials Quiz</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ready life safe lawyer back.</t>
+          <t>International will test about throw wonder.</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2507,19 +2507,19 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>questions5.csv</t>
+          <t>questions2.csv</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js Quiz</t>
+          <t>Machine Learning Basics Quiz</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Prevent stop culture beat.</t>
+          <t>Month table assume describe interest month between.</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2540,19 +2540,19 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>questions1.csv</t>
+          <t>questions5.csv</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Introduction to Python Quiz</t>
+          <t>Backend Development with Node.js Quiz</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Themselves age oil likely break owner.</t>
+          <t>Crime education tough born even response.</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2578,14 +2578,14 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>questions4.csv</t>
+          <t>questions2.csv</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB Quiz</t>
+          <t>Web Development Fundamentals Quiz</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Very miss really red power resource best.</t>
+          <t>Car anyone exactly job attention.</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>questions3.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals Quiz</t>
+          <t>Machine Learning Basics Quiz</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>View increase want career realize unit score.</t>
+          <t>Rather practice manage medical whom.</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2639,19 +2639,19 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>questions1.csv</t>
+          <t>questions3.csv</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Introduction to Python Quiz</t>
+          <t>Frontend Development with React Quiz</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Last team suffer owner.</t>
+          <t>Allow player have take break raise.</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -2672,19 +2672,19 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>questions4.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Frontend Development with React Quiz</t>
+          <t>Cloud Computing Fundamentals Quiz</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>I human ago day.</t>
+          <t>Mission account only could.</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2705,19 +2705,19 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>questions5.csv</t>
+          <t>questions3.csv</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB Quiz</t>
+          <t>Web Development Fundamentals Quiz</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Help picture give from it.</t>
+          <t>Always similar memory man door hotel simple.</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2738,19 +2738,19 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>questions1.csv</t>
+          <t>questions5.csv</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Frontend Development with React Quiz</t>
+          <t>Backend Development with Node.js Quiz</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Read knowledge realize level must next.</t>
+          <t>Other property sense weight sign people partner.</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2776,14 +2776,14 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>questions1.csv</t>
+          <t>questions2.csv</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Frontend Development with React Quiz</t>
+          <t>Backend Development with Node.js Quiz</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>By future despite particularly view lead.</t>
+          <t>Develop manager life final.</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2804,19 +2804,19 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>questions1.csv</t>
+          <t>questions4.csv</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Machine Learning Basics Quiz</t>
+          <t>Introduction to JavaScript Quiz</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Member ever few until wife represent.</t>
+          <t>Worker important leader physical authority.</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2837,12 +2837,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>questions4.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Case degree teacher onto as thank.</t>
+          <t>Item drive manage vote.</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2875,14 +2875,14 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>questions4.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals Quiz</t>
+          <t>Database Management with MongoDB Quiz</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Item expect bad toward job cultural recognize.</t>
+          <t>Ok board big near science.</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2903,19 +2903,19 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>questions5.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Introduction to Python Quiz</t>
+          <t>Frontend Development with React Quiz</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Water somebody church result themselves particularly amount.</t>
+          <t>Matter door young general.</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2941,14 +2941,14 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>questions1.csv</t>
+          <t>questions3.csv</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Introduction to Python Quiz</t>
+          <t>Cybersecurity Essentials Quiz</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>No clearly machine development subject.</t>
+          <t>Almost it born necessary key economy.</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -2981,7 +2981,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials Quiz</t>
+          <t>Cloud Computing Fundamentals Quiz</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Myself up scientist democratic ten ready.</t>
+          <t>Any general thus sport expert.</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3014,7 +3014,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Data Science Essentials Quiz</t>
+          <t>Database Management with MongoDB Quiz</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Onto result enjoy involve sing picture far tend.</t>
+          <t>Dog national community inside probably.</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -3035,19 +3035,19 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>questions3.csv</t>
+          <t>questions5.csv</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Introduction to Python Quiz</t>
+          <t>Database Management with MongoDB Quiz</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Fact pull budget television direction any blue.</t>
+          <t>Particular describe ok tax watch study learn.</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -3068,12 +3068,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>questions2.csv</t>
+          <t>questions3.csv</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Party half night spend country red message.</t>
+          <t>Man can chair arrive voice such teacher.</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3113,7 +3113,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Introduction to Python Quiz</t>
+          <t>Web Development Fundamentals Quiz</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Area before state audience feel.</t>
+          <t>Reflect at billion eat.</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -3134,19 +3134,19 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>questions2.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript Quiz</t>
+          <t>Backend Development with Node.js Quiz</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Actually require manager worry.</t>
+          <t>Party commercial indicate serve.</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -3179,7 +3179,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Frontend Development with React Quiz</t>
+          <t>Database Management with MongoDB Quiz</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Animal message true clearly.</t>
+          <t>Political wait drug trade.</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -3200,19 +3200,19 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>questions4.csv</t>
+          <t>questions5.csv</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js Quiz</t>
+          <t>Database Management with MongoDB Quiz</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Can nor nice from apply wish.</t>
+          <t>Gas task religious third seat yourself.</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -3238,14 +3238,14 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>questions2.csv</t>
+          <t>questions5.csv</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript Quiz</t>
+          <t>Data Science Essentials Quiz</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Cause eat child may other red.</t>
+          <t>Hold building stage health especially seek later.</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -3266,19 +3266,19 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>questions1.csv</t>
+          <t>questions2.csv</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Data Science Essentials Quiz</t>
+          <t>Introduction to JavaScript Quiz</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>True live can performance seem exist.</t>
+          <t>Early investment wrong response generation seek.</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -3299,19 +3299,19 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>questions4.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals Quiz</t>
+          <t>Cloud Computing Fundamentals Quiz</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Continue former physical smile.</t>
+          <t>Ok century side serve.</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3344,7 +3344,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript Quiz</t>
+          <t>Machine Learning Basics Quiz</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Tax and when after.</t>
+          <t>Voice really read feel.</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3377,7 +3377,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Introduction to Python Quiz</t>
+          <t>Backend Development with Node.js Quiz</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Any responsibility age at.</t>
+          <t>Himself job account whatever professional daughter.</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -3398,19 +3398,19 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>questions4.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals Quiz</t>
+          <t>Data Science Essentials Quiz</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Tonight brother quality none speak strong idea.</t>
+          <t>Arm ten project old arrive.</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -3431,19 +3431,19 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>questions3.csv</t>
+          <t>questions2.csv</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals Quiz</t>
+          <t>Frontend Development with React Quiz</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Alone federal American yourself.</t>
+          <t>Strategy physical attention choice hot wide.</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>questions1.csv</t>
+          <t>questions2.csv</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Care well science perform that office successful.</t>
+          <t>Evidence far too fast likely art.</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -3502,14 +3502,14 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>questions2.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals Quiz</t>
+          <t>Frontend Development with React Quiz</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Check history know evening movie save magazine.</t>
+          <t>Similar party take thought.</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>questions4.csv</t>
+          <t>questions3.csv</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Frontend Development with React Quiz</t>
+          <t>Cybersecurity Essentials Quiz</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>More free worker important wait why.</t>
+          <t>Catch add although might.</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -3563,19 +3563,19 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>questions4.csv</t>
+          <t>questions5.csv</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals Quiz</t>
+          <t>Web Development Fundamentals Quiz</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Major house just.</t>
+          <t>Yard more building night indicate war.</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -3596,19 +3596,19 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>questions2.csv</t>
+          <t>questions5.csv</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Data Science Essentials Quiz</t>
+          <t>Backend Development with Node.js Quiz</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Task major word scene though.</t>
+          <t>Will race oil political sense positive trip man.</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -3634,14 +3634,14 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>questions4.csv</t>
+          <t>questions5.csv</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Introduction to Python Quiz</t>
+          <t>Backend Development with Node.js Quiz</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Offer left high management agent they police.</t>
+          <t>Could collection factor stay play.</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -3667,14 +3667,14 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>questions5.csv</t>
+          <t>questions3.csv</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Machine Learning Basics Quiz</t>
+          <t>Data Science Essentials Quiz</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>National walk similar example.</t>
+          <t>One outside decide writer discussion economy girl.</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -3695,12 +3695,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>questions3.csv</t>
+          <t>questions5.csv</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Military however color little form world.</t>
+          <t>Notice simply art civil.</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -3728,12 +3728,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>questions5.csv</t>
+          <t>questions1.csv</t>
         </is>
       </c>
     </row>
